--- a/biology/Botanique/Château_Saint-Georges_(Côte_Pavie)/Château_Saint-Georges_(Côte_Pavie).xlsx
+++ b/biology/Botanique/Château_Saint-Georges_(Côte_Pavie)/Château_Saint-Georges_(Côte_Pavie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(C%C3%B4te_Pavie)</t>
+          <t>Château_Saint-Georges_(Côte_Pavie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château Saint-Georges (Côte Pavie) est une petite propriété d’un peu plus de 5 ha située sur le coteau argilo-calcaire de Pavie, entre le château Pavie et le château La Gaffelière. Sa production est représentative de l’appellation saint-émilion. En appellation saint-émilion grand cru, il est classé grand cru classé dans les derniers classements des vins de Saint-Émilion de 2006[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château Saint-Georges (Côte Pavie) est une petite propriété d’un peu plus de 5 ha située sur le coteau argilo-calcaire de Pavie, entre le château Pavie et le château La Gaffelière. Sa production est représentative de l’appellation saint-émilion. En appellation saint-émilion grand cru, il est classé grand cru classé dans les derniers classements des vins de Saint-Émilion de 2006.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(C%C3%B4te_Pavie)</t>
+          <t>Château_Saint-Georges_(Côte_Pavie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À moins de 100 mètres de la propriété, sur le site du Palat ont été mises au jour des mosaïques attestant la présence au IIIe ou IVe siècle[2] d’une villa gallo-romaine dont le domaine devait s’étendre sur tout le versant sud-ouest de Saint-Émilion. Le poète bordelais Ausone qui, avant d’être le second personnage de l'Empire romain, fut un vigneron avisé et en était peut-être le propriétaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À moins de 100 mètres de la propriété, sur le site du Palat ont été mises au jour des mosaïques attestant la présence au IIIe ou IVe siècle d’une villa gallo-romaine dont le domaine devait s’étendre sur tout le versant sud-ouest de Saint-Émilion. Le poète bordelais Ausone qui, avant d’être le second personnage de l'Empire romain, fut un vigneron avisé et en était peut-être le propriétaire.
 Au Moyen Âge, le site est constitué d’un fief dépendant de l'abbaye de La Sauve-Majeure. Il prend le nom de Saint Georges, vocable emprunté à la paroisse qui y a été érigée.
 Au XVIIe siècle l’illustre famille de Grailly devient propriétaire de Saint-Georges. Dans les années 1760, Joseph de Grailly exploite les 5 ha actuels de vignes. Il crée la marque Grailly Saint-Émilion.
-Depuis 1873, Saint-Georges Côte Pavie appartient à la même famille. À l’origine Jules Charoulet, natif d’Argentat en Corrèze, négociant en vin depuis 1857 ; au lendemain de la guerre de 1970, il s’établit à Saint-Émilion où il acquiert différentes propriétés dont Saint-Georges Côte Pavie[3]. Son fils Adolphe Charoulet lui succède comme négociant.
+Depuis 1873, Saint-Georges Côte Pavie appartient à la même famille. À l’origine Jules Charoulet, natif d’Argentat en Corrèze, négociant en vin depuis 1857 ; au lendemain de la guerre de 1970, il s’établit à Saint-Émilion où il acquiert différentes propriétés dont Saint-Georges Côte Pavie. Son fils Adolphe Charoulet lui succède comme négociant.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(C%C3%B4te_Pavie)</t>
+          <t>Château_Saint-Georges_(Côte_Pavie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Composé à 80 % de merlots et à 20 % de cabernets francs. Sa moyenne d’âge est de 25 ans.
 Au niveau tant de la culture que de la vinification et de l’élevage tout est décidé en fonction de la qualité.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(C%C3%B4te_Pavie)</t>
+          <t>Château_Saint-Georges_(Côte_Pavie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Vinification et élevage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est donc à partir d’une vendange saine et homogène que sont élaborés avec le plus grand soin des vins à l’image de la terre qui les produit. Après fermentation et macération (3 à 4 semaines) en cuves inox thermorégulées, le vin est mis en barriques dont au moins 50 % neuves. La fermentation malolactique est faite en barriques. L’élevage dans des chais climatisés et ventilé qui viennent de faire l’objet de travaux importants dure environ 18 mois. Tous les trois mois les vins sont soutirés.
 Une équipe particulièrement qualifiée se réunit au moment de l’assemblage pour décider si tous les lots méritent le label grand cru classé ou si certains, légèrement inférieurs sur le plan qualitatif, doivent être labellisés en « Côte Madeleine », second vin de la propriété.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(C%C3%B4te_Pavie)</t>
+          <t>Château_Saint-Georges_(Côte_Pavie)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vignoble de coteaux de 5,5 ha
 Propriétaire: Famille Masson
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Saint-Georges_(C%C3%B4te_Pavie)</t>
+          <t>Château_Saint-Georges_(Côte_Pavie)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Robe : rouge obscur
 Nez : épices, moka, torréfié, fruits rouges
